--- a/data/processed/ORCL_CoreMonthly_Fundamentals_Merged.xlsx
+++ b/data/processed/ORCL_CoreMonthly_Fundamentals_Merged.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB314"/>
+  <dimension ref="A1:DB315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73069,7 +73069,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>46015</v>
+        <v>46022</v>
       </c>
       <c r="B314" t="n">
         <v>200.5</v>
@@ -73081,13 +73081,13 @@
         <v>177.07</v>
       </c>
       <c r="E314" t="n">
-        <v>197.49</v>
+        <v>194.91</v>
       </c>
       <c r="F314" t="n">
-        <v>197.49</v>
+        <v>194.91</v>
       </c>
       <c r="G314" t="n">
-        <v>639662268</v>
+        <v>690225434</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -73317,6 +73317,256 @@
       <c r="DA314" t="inlineStr"/>
       <c r="DB314" t="inlineStr"/>
     </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B315" t="n">
+        <v>197.47</v>
+      </c>
+      <c r="C315" t="n">
+        <v>201.69</v>
+      </c>
+      <c r="D315" t="n">
+        <v>186.15</v>
+      </c>
+      <c r="E315" t="n">
+        <v>189.67</v>
+      </c>
+      <c r="F315" t="n">
+        <v>189.67</v>
+      </c>
+      <c r="G315" t="n">
+        <v>84266336</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="n">
+        <v>119</v>
+      </c>
+      <c r="J315" s="3" t="n">
+        <v>45991</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>204984000000</v>
+      </c>
+      <c r="M315" t="n">
+        <v>34366000000</v>
+      </c>
+      <c r="N315" t="n">
+        <v>19241000000</v>
+      </c>
+      <c r="O315" t="n">
+        <v>19241000000</v>
+      </c>
+      <c r="P315" t="inlineStr"/>
+      <c r="Q315" t="n">
+        <v>9440000000</v>
+      </c>
+      <c r="R315" t="n">
+        <v>170618000000</v>
+      </c>
+      <c r="S315" t="inlineStr"/>
+      <c r="T315" t="inlineStr"/>
+      <c r="U315" t="n">
+        <v>3760000000</v>
+      </c>
+      <c r="V315" t="n">
+        <v>3760000000</v>
+      </c>
+      <c r="W315" t="n">
+        <v>62207000000</v>
+      </c>
+      <c r="X315" t="inlineStr"/>
+      <c r="Y315" t="inlineStr"/>
+      <c r="Z315" t="n">
+        <v>525000000</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>5160000000</v>
+      </c>
+      <c r="AB315" t="inlineStr"/>
+      <c r="AC315" t="n">
+        <v>174527000000</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>37795000000</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>10140000000</v>
+      </c>
+      <c r="AF315" t="inlineStr"/>
+      <c r="AG315" t="inlineStr"/>
+      <c r="AH315" t="n">
+        <v>8091000000</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>136732000000</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>16311000000</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>99984000000</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>8091000000</v>
+      </c>
+      <c r="AM315" t="inlineStr"/>
+      <c r="AN315" t="n">
+        <v>124386000000</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>-1261000000</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>9552000000</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>30457000000</v>
+      </c>
+      <c r="AR315" t="inlineStr"/>
+      <c r="AS315" t="n">
+        <v>-9355000000</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>40577000000</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>2916000000</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>2066000000</v>
+      </c>
+      <c r="AW315" t="inlineStr"/>
+      <c r="AX315" t="inlineStr"/>
+      <c r="AY315" t="inlineStr"/>
+      <c r="AZ315" t="inlineStr"/>
+      <c r="BA315" t="n">
+        <v>2111000000</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>12033000000</v>
+      </c>
+      <c r="BC315" t="inlineStr"/>
+      <c r="BD315" t="inlineStr"/>
+      <c r="BE315" t="inlineStr"/>
+      <c r="BF315" t="n">
+        <v>-7714000000</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>14487000000</v>
+      </c>
+      <c r="BH315" t="inlineStr"/>
+      <c r="BI315" t="inlineStr"/>
+      <c r="BJ315" t="inlineStr"/>
+      <c r="BK315" t="inlineStr"/>
+      <c r="BL315" t="n">
+        <v>1435000000</v>
+      </c>
+      <c r="BM315" t="n">
+        <v>1435000000</v>
+      </c>
+      <c r="BN315" t="inlineStr"/>
+      <c r="BO315" t="inlineStr"/>
+      <c r="BP315" t="inlineStr"/>
+      <c r="BQ315" t="inlineStr"/>
+      <c r="BR315" t="n">
+        <v>-92000000</v>
+      </c>
+      <c r="BS315" t="inlineStr"/>
+      <c r="BT315" t="inlineStr"/>
+      <c r="BU315" t="inlineStr"/>
+      <c r="BV315" t="n">
+        <v>6135000000</v>
+      </c>
+      <c r="BW315" t="n">
+        <v>11999000000</v>
+      </c>
+      <c r="BX315" t="n">
+        <v>16057000000</v>
+      </c>
+      <c r="BY315" t="n">
+        <v>4058000000</v>
+      </c>
+      <c r="BZ315" t="n">
+        <v>4058000000</v>
+      </c>
+      <c r="CA315" t="n">
+        <v>4731000000</v>
+      </c>
+      <c r="CB315" t="n">
+        <v>410000000</v>
+      </c>
+      <c r="CC315" t="n">
+        <v>2560000000</v>
+      </c>
+      <c r="CD315" t="n">
+        <v>7268000000</v>
+      </c>
+      <c r="CE315" t="inlineStr"/>
+      <c r="CF315" t="n">
+        <v>-865000000</v>
+      </c>
+      <c r="CG315" t="n">
+        <v>192000000</v>
+      </c>
+      <c r="CH315" t="n">
+        <v>2903000000</v>
+      </c>
+      <c r="CI315" t="inlineStr"/>
+      <c r="CJ315" t="inlineStr"/>
+      <c r="CK315" t="inlineStr"/>
+      <c r="CL315" t="n">
+        <v>420000000</v>
+      </c>
+      <c r="CM315" t="n">
+        <v>6342000000</v>
+      </c>
+      <c r="CN315" t="n">
+        <v>207000000</v>
+      </c>
+      <c r="CO315" t="inlineStr"/>
+      <c r="CP315" t="n">
+        <v>6135000000</v>
+      </c>
+      <c r="CQ315" t="inlineStr"/>
+      <c r="CR315" t="n">
+        <v>4658000000</v>
+      </c>
+      <c r="CS315" t="n">
+        <v>5078000000</v>
+      </c>
+      <c r="CT315" s="3" t="n">
+        <v>45999</v>
+      </c>
+      <c r="CU315" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="CV315" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="CW315" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CX315" t="n">
+        <v>38.6503</v>
+      </c>
+      <c r="CY315" t="inlineStr">
+        <is>
+          <t>post-market</t>
+        </is>
+      </c>
+      <c r="CZ315" t="inlineStr"/>
+      <c r="DA315" t="inlineStr"/>
+      <c r="DB315" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
